--- a/biology/Botanique/Suiseki/Suiseki.xlsx
+++ b/biology/Botanique/Suiseki/Suiseki.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le suiseki (水石?, pierre travaillée par l'eau) est un art japonais relatif aux pierres de forme particulière.
@@ -516,7 +528,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans la tradition shintoïste, les kamis peuvent résider en tout élément de la nature : un torrent, un bel arbre (bonsaï) ou une pierre étrange.
 Le suiseki est un art dont les premières traces remontent au VIe siècle : l'impératrice Suiko reçoit un paysage de pierres miniatures de la cour impériale chinoise. Pendant cette première période, le suiseki est de style chinois, aux pierres souvent colorées, abstraites, très érodées. Le suiseki devient un objet symbolique, tant pour les bouddhistes que pour les taoïstes et les shintoïstes.
@@ -552,7 +566,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Yamagataishi (山形石?, littéralement pierre en forme de montagne(s)) ou shimagata-ishi (島形石?, pierres-îles) : un ou plusieurs sommets, vues de loin ou de près.
 Taki-ishi (滝石?, littéralement pierre-cascade) : une ou plusieurs lignes blanches descendent le long de la pierre, comme une cascade.
@@ -593,12 +609,87 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Daiza
-Dans l’art du suiseki , le daiza est un support d'ornementation en bois, taillé sur mesure et très ajusté, qui sert à la présentation d'une pierre remarquable par sa forme, sa couleur, etc.
-Doban
-Un doban est une coupe en bronze servant à présenter un suiseki, à des fins d'ornementation. Elle sera remplie d'eau ou de sable suivant les cas et servira à mettre en valeur une pierre évoquant le plus souvent une île.
-Suiban
-Lorsqu'il est en pierre, le support de présentation du suiseki est appelé suiban. Le suiban est une coupe en grès, très plate et non percée, utilisée comme support d'ornementation. Elle sera alors remplie de sable ou d'eau suivant les cas et mettra la pierre en valeur.
+          <t>Daiza</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans l’art du suiseki , le daiza est un support d'ornementation en bois, taillé sur mesure et très ajusté, qui sert à la présentation d'une pierre remarquable par sa forme, sa couleur, etc.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Suiseki</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Suiseki</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Supports de présentation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Doban</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un doban est une coupe en bronze servant à présenter un suiseki, à des fins d'ornementation. Elle sera remplie d'eau ou de sable suivant les cas et servira à mettre en valeur une pierre évoquant le plus souvent une île.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Suiseki</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Suiseki</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Supports de présentation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Suiban</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lorsqu'il est en pierre, le support de présentation du suiseki est appelé suiban. Le suiban est une coupe en grès, très plate et non percée, utilisée comme support d'ornementation. Elle sera alors remplie de sable ou d'eau suivant les cas et mettra la pierre en valeur.
 </t>
         </is>
       </c>
